--- a/biology/Botanique/Turnera_ulmifolia/Turnera_ulmifolia.xlsx
+++ b/biology/Botanique/Turnera_ulmifolia/Turnera_ulmifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turnera ulmifolia est une espèce de plantes à fleurs de la famille des Passifloraceae originaire d'Amérique centrale et des Caraïbes.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Turnera alba Liebm.
 Turnera angustifolia Mill.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'espèce se présente comme une plante herbacée aux grandes fleurs jaunes.
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractère envahissant
-Cette espèce est considérée envahissante notamment en Nouvelle-Calédonie. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[1].
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée envahissante notamment en Nouvelle-Calédonie. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 </t>
         </is>
       </c>
